--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T09:04:29+00:00</t>
+    <t>2022-09-26T12:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,10 +54,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T12:48:08+00:00</t>
+    <t>2022-09-26T15:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -224,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -312,20 +318,28 @@
       <c r="A11" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -347,28 +361,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T15:07:54+00:00</t>
+    <t>2022-10-03T11:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-03T11:30:02+00:00</t>
+    <t>2022-10-14T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T14:40:23+00:00</t>
+    <t>2022-10-14T20:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Property</t>
   </si>
@@ -51,10 +51,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:29:20+00:00</t>
+    <t>2022-10-21T19:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +279,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -290,56 +295,58 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -361,28 +368,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T19:41:46+00:00</t>
+    <t>2022-10-24T13:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24T13:30:48+00:00</t>
+    <t>2022-10-25T13:43:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:43:34+00:00</t>
+    <t>2022-11-17T10:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T10:59:49+00:00</t>
+    <t>2022-11-17T12:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T12:13:42+00:00</t>
+    <t>2022-11-24T13:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T13:50:37+00:00</t>
+    <t>2023-01-05T08:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T08:20:17+00:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:53:11+00:00</t>
+    <t>2023-02-10T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:06+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:57:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:57:37+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:46+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -221,10 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from BePrescriptionSt" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status-reason.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
